--- a/biology/Botanique/Festuca_glauca/Festuca_glauca.xlsx
+++ b/biology/Botanique/Festuca_glauca/Festuca_glauca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Festuca glauca
-Festuca glauca, ou en langue vernaculaire fétuque glauque ou fétuque bleue, est une plante herbacée de la famille des Poaceae, originaire d'Europe. En latin le terme « Festuca » signifie brin d’herbe et le nom d’espèce « glauca » fait référence à sa couleur bleu-vert[2].
+Festuca glauca, ou en langue vernaculaire fétuque glauque ou fétuque bleue, est une plante herbacée de la famille des Poaceae, originaire d'Europe. En latin le terme « Festuca » signifie brin d’herbe et le nom d’espèce « glauca » fait référence à sa couleur bleu-vert.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une herbe dressée poussant en touffe, pouvant atteindre 30 cm de hauteur et de propagation. La couleur des feuilles varie du blanc argenté au gris bleuté et ses fleurs, insignifiantes, apparaissent pendant l'été. La fétuque bleue forme, lors de sa floraison de mai à juin, des panicules pouvant atteindre 50cm[3]. Elle supporte la coupe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une herbe dressée poussant en touffe, pouvant atteindre 30 cm de hauteur et de propagation. La couleur des feuilles varie du blanc argenté au gris bleuté et ses fleurs, insignifiantes, apparaissent pendant l'été. La fétuque bleue forme, lors de sa floraison de mai à juin, des panicules pouvant atteindre 50cm. Elle supporte la coupe.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est adapté pour les bordures et les plates-bandes de rocailles. Ses cultivars les plus connus sont 'Blaufuchs' d'un bleu vif, 'Blausilver' avec des feuilles bleu intense, ou encore 'Elijah Blue' qui peut atteindre 35 cm de hauteur. Ils ont besoin d'un sol drainé et sec et d'une situation ensoleillée. Ainsi c'est une espèce rustique résistante à la sécheresse et nécessitant peu de nutriments pour se développer. Ces caractéristiques expliquent que l’on peut la trouver sur la quasi-totalité des continents[4].
-La fétuque glauque a besoin d'être divisée et replantée tous les deux ou trois ans. De plus, c’est une espèce très résistante à une eau saline avec des dommages foliaires moindres à son contact en comparaison de nombreuses autres espèces végétales vivant en milieu terrestre [5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est adapté pour les bordures et les plates-bandes de rocailles. Ses cultivars les plus connus sont 'Blaufuchs' d'un bleu vif, 'Blausilver' avec des feuilles bleu intense, ou encore 'Elijah Blue' qui peut atteindre 35 cm de hauteur. Ils ont besoin d'un sol drainé et sec et d'une situation ensoleillée. Ainsi c'est une espèce rustique résistante à la sécheresse et nécessitant peu de nutriments pour se développer. Ces caractéristiques expliquent que l’on peut la trouver sur la quasi-totalité des continents.
+La fétuque glauque a besoin d'être divisée et replantée tous les deux ou trois ans. De plus, c’est une espèce très résistante à une eau saline avec des dommages foliaires moindres à son contact en comparaison de nombreuses autres espèces végétales vivant en milieu terrestre .
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymes :
 Festuca calcarea Velchev
